--- a/Inputs/LowFreqLabels.xlsx
+++ b/Inputs/LowFreqLabels.xlsx
@@ -47,7 +47,7 @@
     <t>Day2\Cl8_Blebistatin_LowFrequency_03</t>
   </si>
   <si>
-    <t>Day2\Cl8_Blebistatin_LowFrequency</t>
+    <t>Day3\Cl8_Blebistatin_LowFrequency</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
